--- a/src/RenardAndSSRTesting.xlsx
+++ b/src/RenardAndSSRTesting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="15180" windowHeight="8580" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="15180" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Renard Tests" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="44">
   <si>
     <t>SSRez 1</t>
   </si>
@@ -256,23 +256,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:D66" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:D66" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B2:D66"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Channel" dataDxfId="8"/>
-    <tableColumn id="2" name="Output Jack" dataDxfId="7"/>
-    <tableColumn id="3" name="Test Result" dataDxfId="6"/>
+    <tableColumn id="1" name="Channel" dataDxfId="6"/>
+    <tableColumn id="2" name="Output Jack" dataDxfId="5"/>
+    <tableColumn id="3" name="Test Result" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F2:G10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F2:G10" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="F2:G10"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="PIC Slot" dataDxfId="3"/>
-    <tableColumn id="2" name="Firmware Diagnostic Test" dataDxfId="2"/>
+    <tableColumn id="1" name="PIC Slot" dataDxfId="1"/>
+    <tableColumn id="2" name="Firmware Diagnostic Test" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,6 +605,9 @@
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
@@ -619,6 +622,9 @@
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>35</v>
       </c>
@@ -633,6 +639,9 @@
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>36</v>
       </c>
@@ -647,6 +656,9 @@
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>37</v>
       </c>
@@ -661,6 +673,9 @@
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>38</v>
       </c>
@@ -675,6 +690,9 @@
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
@@ -689,6 +707,9 @@
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>40</v>
       </c>
@@ -703,6 +724,9 @@
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>41</v>
       </c>
@@ -717,6 +741,9 @@
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -725,6 +752,9 @@
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -733,6 +763,9 @@
       <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -741,6 +774,9 @@
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -749,6 +785,9 @@
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -757,405 +796,558 @@
       <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>50</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>59</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>60</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>61</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>62</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>63</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1171,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
